--- a/Tables/Data.xlsx
+++ b/Tables/Data.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>2018?8?1? ??4:22:21</t>
+  </si>
+  <si>
+    <t>2018?8?1? ??4:22:22</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/Tables/Data.xlsx
+++ b/Tables/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -29,11 +29,205 @@
   <si>
     <t>2018?8?1? ??4:22:22</t>
   </si>
+  <si>
+    <t>2018?8?3? ??10:12:29</t>
+  </si>
+  <si>
+    <t>2018?8?3? ??10:12:30</t>
+  </si>
+  <si>
+    <t>2018?8?3? ??10:12:31</t>
+  </si>
+  <si>
+    <t>2018?8?3? ??10:12:32</t>
+  </si>
+  <si>
+    <t>2018?8?3? ??10:12:33</t>
+  </si>
+  <si>
+    <t>2018?8?3? ??10:12:34</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="174">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="172" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="173" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="174" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="175" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="180" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="181" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="182" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="183" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="184" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="185" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="186" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="187" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="188" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="189" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="190" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="191" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="192" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="193" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="194" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="195" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="196" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="197" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="198" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="199" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="200" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="201" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="202" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="203" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="204" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="205" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="206" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="207" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="208" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="209" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="210" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="211" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="212" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="213" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="214" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="215" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="216" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="217" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="218" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="219" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="220" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="221" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="222" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="223" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="224" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="225" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="226" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="227" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="228" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="229" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="230" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="231" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="232" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="233" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="234" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="235" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="236" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="237" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="238" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="239" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="240" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="241" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="242" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="243" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="244" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="245" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="246" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="247" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="248" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="249" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="250" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="251" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="252" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="253" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="254" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="255" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="256" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="257" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="258" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="259" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="260" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="261" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="262" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="263" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="264" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="265" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="266" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="267" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="268" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="269" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="270" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="271" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="272" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="273" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="274" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="275" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="276" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="277" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="278" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="279" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="280" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="281" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="282" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="283" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="284" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="285" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="286" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="287" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="288" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="289" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="290" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="291" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="292" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="293" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="294" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="295" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="296" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="297" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="298" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="299" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="300" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="301" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="302" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="303" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="304" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="305" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="306" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="307" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="308" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="309" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="310" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="311" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="312" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="313" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="314" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="315" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="316" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="317" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="318" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="319" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="320" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="321" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="322" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="323" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="324" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="325" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="326" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="327" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="328" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="329" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="330" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="331" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="332" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="333" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="334" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="335" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="336" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="337" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -494,10 +688,184 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="204" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="210" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="211" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="212" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="213" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="215" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="216" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="217" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="218" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="219" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="220" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="221" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="222" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="223" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="224" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="225" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="226" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="227" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="228" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="229" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="230" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="231" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="233" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="234" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="235" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="236" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="237" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="238" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="239" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="240" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="241" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="242" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="243" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="244" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="245" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="246" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="247" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="248" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="249" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="250" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="251" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="252" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="253" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="254" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="255" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="256" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="257" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="258" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="259" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="260" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="261" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="262" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="263" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="264" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="265" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="266" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="267" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="268" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="269" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="270" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="271" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="272" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="273" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="274" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="275" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="276" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="277" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="278" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="279" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="280" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="281" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="282" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="283" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="284" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="285" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="286" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="287" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="288" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="289" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="290" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="291" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="292" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="293" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="294" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="295" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="296" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="297" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="298" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="299" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="301" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="302" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="303" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="304" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="305" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="306" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="307" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="308" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="309" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="310" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="311" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="312" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="313" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="314" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="315" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="316" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="317" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="318" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="319" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="320" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="321" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="322" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="323" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="324" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="325" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="326" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="327" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="328" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="329" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="330" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="331" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="332" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="333" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="334" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="335" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="336" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
+    <xf numFmtId="337" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -827,8 +1195,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
+      <c r="A1" s="174" t="n">
+        <v>43315.729629635017773</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
